--- a/Httptest_Client/target/test-classes/接口测试错误结果.xlsx
+++ b/Httptest_Client/target/test-classes/接口测试错误结果.xlsx
@@ -44,7 +44,7 @@
     <t>{"status":1,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>{"msg":"密码不能为空","StatusLine":200,"code":"20103","status":0}</t>
+    <t>{"msg":"账号已被注册","StatusLine":200,"code":"20110","status":0}</t>
   </si>
   <si>
     <t/>
